--- a/Table/Npc.xlsx
+++ b/Table/Npc.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="25620" windowHeight="10440"/>
   </bookViews>
   <sheets>
-    <sheet name="StringText" sheetId="1" r:id="rId1"/>
+    <sheet name="NpcInfo" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,73 +24,78 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Seed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>kor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eng</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>취소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cancle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>닉네임</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최대 글자수를 초과했습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>입력이 필요합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nickname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0}으로 생성하시겠습니까?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>닉네임을 입력해주세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>알림</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alarm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Information</t>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타워A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Atk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Def</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AtkSpd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveSpd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AtkRange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dodge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modelAsset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>animationAsset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Data/GameResources/Prefab/Entity/MonsterA/MonsterA.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Data/GameResources/Animation/MonsterA.overrideController</t>
+  </si>
+  <si>
+    <t>Assets/Data/GameResources/Prefab/Entity/Player/Player.prefab</t>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -421,15 +426,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="11" max="11" width="20.375" customWidth="1"/>
+    <col min="12" max="12" width="15" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -437,106 +446,110 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>0.5</v>
+      </c>
+      <c r="J2">
+        <v>10</v>
+      </c>
+      <c r="K2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>101</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3">
+        <v>1000</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>10</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>1000</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>1001</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>1002</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>1003</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>1004</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
